--- a/PLDI-Historical-Data.xlsx
+++ b/PLDI-Historical-Data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4500" yWindow="460" windowWidth="18020" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="4500" yWindow="460" windowWidth="18020" windowHeight="17540" tabRatio="500" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="PLDI 2016 PC" sheetId="2" r:id="rId1"/>
@@ -4160,7 +4160,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0"/>
+    <sheetView topLeftCell="A7" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7060,7 +7062,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH74"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A25" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -9316,7 +9318,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -9592,7 +9596,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
